--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560328/JX560328_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560328/JX560328_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89303897561</v>
+        <v>45441.83330257582</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1289_1292insaag']</t>
+          <t>['1236_1383insgaggtgaagggtagacatgtatagcgcactccggtgtgccagacagtacgatgatcttaccacccacgccgtcgctgtcaacctacgtacattttggcttactcacatgcaatatgtttgatatacgttgcggtaatcatagacatt', '1233_1315insagaaatcatgtacattactatacaggcaaactcacctctggcgaagtttaccggtcatggtacagacgaaagtcctacactt', '1415_1430insacgggggcgaggcgg', '1425_1543insgccttttcattgcattttcgggacattccacgattagttcgcaattgcccccatcttcctcattgatcaaccggctcactcaccggtacaccatctgcggaaattatataacctatct', '1231_1266del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89303899875</v>
+        <v>45441.83330260477</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['204g&gt;c']</t>
+          <t>['242_301del', '226_238del', '206_232del', '219_262del', '164_311insggcttaagggaggtcccggcaacccccgagtctgtgccctgggccacagtgagggcgccggcggactttcaaacaaacgtcgaccgctcttataactcatgacttcaatgtgacttgtaaatccgttactgtgaaacattgtgacgg']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89303902191</v>
+        <v>45441.83330262789</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3105t&gt;a']</t>
+          <t>['3068_3120insgccagtacagagtggtatcattcgaaccggtcgcacacctgacatctgtaac', '3066_3100del', '3109_3164insgttaaaagactgggcagttatagttacccaaacctgtgcagtttgctgtccagaa', '3110_3231del', '3112_3240del']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89303914537</v>
+        <v>45441.83330276221</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1243a&gt;t']</t>
+          <t>['1340_1369insccagtgttgtcctgcacggtactccagat', '1310_1370instaaggcacctcttaggtagactagtgtcggataaccgctcgccatactatataaatcgat', '1423_1461insaaccggctttagcagcgcgcggatcaaccttttactct', '1290_1368instcctggttatgcagtccagttccccgcgctagttttggcgcacgcttgtacatcctctttcggccccatgcaagcatg', '1455_1548del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['240_242del']</t>
+          <t>['166_282del', '217_309inscaagtaccatccctgttcactgacctcggcataggcgcgatcacccaaattgcctgctaccgaagcatgctcacatattattgggccccatt', '244_389del', '240_370insgcctcgaaggagtacaaaacaaaatcatcgctattgcaggatatattcatgtcgcgtccacttagagctttcgcaatagccgaaaaattcagccatcggtgaaatcggataaattacggtaccaacctta', '247_375insaagcatcggacatctatctcgcgaacgtatgatgtaatccgtgcagatcgccatcccttaactccaggcgtatcaactatcgctgacgtcatagatatatgcgttcggtacactccgtcgtgttctcg']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89303916856</v>
+        <v>45441.83330278537</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1416t&gt;a']</t>
+          <t>['1463_1531del', '1236_1360insccccaagctccacctcgctaataacgtctgtctcaactctttttaagctacaacccacttaagcccctattctctacgtcggcttcgaatgagaattatcaataattccacgggtcttccatgg', '1269_1290insgcacaaccttcggcaaacagt', '1396_1535del', '1347_1368insaggtatcatttgaatttaggg']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3027_3029insgt']</t>
+          <t>['3111_3245del', '3057_3131insgagacggtcggtggacgagaaccgtcagctaggtgaaataccaccacatatcgaatcgccaccgcgtgttataa', '3074_3190instaggtacatatattttcgcacaaccgagaatccgccactagtgttaccaattcaaccctccccatagggcccttcggatgcatgcgcttctcgattgggtcccagccggagggttt', '3088_3224del', '3111_3248del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.8930391975</v>
+        <v>45441.83330280852</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['222_223insc']</t>
+          <t>['204_222insgtgtacactgacaatcgt', '218_357insgatgccgtgggggtctttgcggcatttcgatcccaaaaacgctcgagctttgtgactgtgcgattcgatgctaggcgggccgacaattaaagaatttaaaaaaacccgcaatgggttgcacgttgctcgccttctatac', '188_211del', '249_303instgggacatgcccgtgacttttgatcgcagcatggacattgccgctgctcacacg', '212_268del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3073_3077del']</t>
+          <t>['3111_3169del', '3056_3134instttcttaataactatagttgctaggtgagttcgaaacggctctcgtgtgggtacggagtggtaatgtagcggatctat', '3123_3145del', '3101_3206del', '3042_3185del']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89303921486</v>
+        <v>45441.83330283167</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1315c&gt;a']</t>
+          <t>['1437_1521inscttaactctattctacaccacgatgccctaagcaatatcattcgcgaaggaccacctcaaagttcactaggttctagtgctaag', '1446_1540insaagatggcactaccccttcagtttattcagctgtataggtgaacatgacagcgtgggggactagatgttatcctcttaagaggttgacggcgcc', '1384_1463inscaatctttcggccatacacagactttttatattccgaatgttgcatacatatcgtgtgacacaggtgtattgcgttcga', '1446_1463insatatggaaaagggcaat', '1305_1431insttggaggacatgatgtctgttctattataactgggggtcggaagaaatcgcacctttgcacactacttaagacttgacggtgcggtccgcgacacccatatctccgcgctatgcctttcgtttacc']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['205t&gt;g']</t>
+          <t>['217_296inscctagagaagcgtctagataagaaaggtagtcttatgggaactacccgctatctgtcacggacggtcggcaaagcacac', '190_219del', '226_238del', '154_252insgcgtcacgccacctccccctcacctcgcctaaccccgtcaagccgtctgtctgtaattgagcagggactaggttgtgctatttgcgatgcgctatttc', '203_312del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3080_3084del']</t>
+          <t>['3058_3141instgcccaaggctgatgtatggaccgtcctgatgtgagcacccttaacatacctgcccaattcgtccacggtacttgtcaagagt', '3098_3111del', '3054_3099del', '3037_3138insagagttgtgtcccaacggctaatagctcttcgtcgcccccaggcaataggcgcgcgcatagactggtcgtccagccgggaacaccgattgaggagggcaga', '3028_3078del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89303923801</v>
+        <v>45441.83330285479</v>
       </c>
     </row>
   </sheetData>
